--- a/Documents/Feature List.xlsx
+++ b/Documents/Feature List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentlit-my.sharepoint.com/personal/k00232599_student_lit_ie/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K00233369\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{EF794722-2198-4D24-8061-D480B505C82B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AED36C95-7CCC-4ABF-8FAE-E4BFA0580A84}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA853EA7-666D-4882-96D6-DF26B1DFA014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Feature</t>
   </si>
@@ -79,16 +79,10 @@
     <t>User - Website</t>
   </si>
   <si>
-    <t>The organisation can sign in and upload there maps and information for gps navigation to work</t>
-  </si>
-  <si>
     <t xml:space="preserve">Application - Map
 </t>
   </si>
   <si>
-    <t>The map display the building layout</t>
-  </si>
-  <si>
     <t>Marker to display where you are</t>
   </si>
   <si>
@@ -98,7 +92,40 @@
     <t>Application - Detect Beacons</t>
   </si>
   <si>
-    <t>Detect where you are by using bluetooh beacons</t>
+    <t>The organisation can sign in</t>
+  </si>
+  <si>
+    <t>Organisation can upload information for navigation to work</t>
+  </si>
+  <si>
+    <t>Organisation can upload their maps</t>
+  </si>
+  <si>
+    <t>Detect where you are by using bluetooth beacons</t>
+  </si>
+  <si>
+    <t>Detect where you are by using QR Codes</t>
+  </si>
+  <si>
+    <t>Detect where you are by using Bar Codes</t>
+  </si>
+  <si>
+    <t>Show list of stepts to get from where you are to where you are going</t>
+  </si>
+  <si>
+    <t>Application - route lnstructions</t>
+  </si>
+  <si>
+    <t>Sprint 14</t>
+  </si>
+  <si>
+    <t>Read in the Organisations Code to download data to the application</t>
+  </si>
+  <si>
+    <t>To show the map after download of data and option to select where the user would like to go.</t>
+  </si>
+  <si>
+    <t>Detect where you are by using NFC</t>
   </si>
 </sst>
 </file>
@@ -519,22 +546,22 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -542,125 +569,143 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -670,9 +715,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -682,9 +727,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="11"/>
@@ -694,9 +739,9 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -706,9 +751,9 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -718,9 +763,9 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -730,9 +775,9 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -749,6 +794,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003346250C7A7DC444B5B8BD6B4F11346C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7778cca334f7cd03e5491b75ee9e5f9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e86b558f-1821-4180-8c71-7e32b468d584" xmlns:ns4="bb0fba86-f7fb-46c6-8423-a0b803871f4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb87653dc2dcaf3360c4fa507c3fae27" ns3:_="" ns4:_="">
     <xsd:import namespace="e86b558f-1821-4180-8c71-7e32b468d584"/>
@@ -951,15 +1005,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -967,6 +1012,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A0D4D9-C37D-4EC8-999A-605D60E3B106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3817E717-5FBF-47BC-9D93-FE77C9207156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -981,14 +1034,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A0D4D9-C37D-4EC8-999A-605D60E3B106}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/Feature List.xlsx
+++ b/Documents/Feature List.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K00233369\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA853EA7-666D-4882-96D6-DF26B1DFA014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2267F-6BFC-437F-B245-E1FEEDF08C32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sprints" sheetId="1" r:id="rId1"/>
+    <sheet name="FBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Feature</t>
-  </si>
-  <si>
-    <t>What is is?</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -92,15 +90,6 @@
     <t>Application - Detect Beacons</t>
   </si>
   <si>
-    <t>The organisation can sign in</t>
-  </si>
-  <si>
-    <t>Organisation can upload information for navigation to work</t>
-  </si>
-  <si>
-    <t>Organisation can upload their maps</t>
-  </si>
-  <si>
     <t>Detect where you are by using bluetooth beacons</t>
   </si>
   <si>
@@ -126,6 +115,60 @@
   </si>
   <si>
     <t>Detect where you are by using NFC</t>
+  </si>
+  <si>
+    <t>Sprint 15</t>
+  </si>
+  <si>
+    <t>Organisation view their details and can upload their maps</t>
+  </si>
+  <si>
+    <t>ERD of Database</t>
+  </si>
+  <si>
+    <t>Implementation of database in SQL</t>
+  </si>
+  <si>
+    <t>Organisation can upload/update information for navigation to work</t>
+  </si>
+  <si>
+    <t>Storyboard</t>
+  </si>
+  <si>
+    <t>User can view website and allows organisations to login and update their information</t>
+  </si>
+  <si>
+    <t>Landing page and option to allow organisation to sign in</t>
+  </si>
+  <si>
+    <t>Design and build landing page</t>
+  </si>
+  <si>
+    <t>User login and verify</t>
+  </si>
+  <si>
+    <t>user database</t>
+  </si>
+  <si>
+    <t>user login screen</t>
+  </si>
+  <si>
+    <t>Database - design</t>
+  </si>
+  <si>
+    <t>Database selection and initial design</t>
+  </si>
+  <si>
+    <t>Hosted site - implementation of database onto site</t>
+  </si>
+  <si>
+    <t>Organisations send in registeration request - used to create org in database</t>
+  </si>
+  <si>
+    <t>Present landing screen to user and request initial input (BT, NFC, QR , BC)</t>
+  </si>
+  <si>
+    <t>Possibility to update maker as user moves around</t>
   </si>
 </sst>
 </file>
@@ -174,13 +217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -233,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -242,9 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -259,6 +299,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,181 +605,188 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -725,67 +794,72 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -793,16 +867,128 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F018BBFD-6BA3-4F99-AC1B-306B5C899706}">
+  <dimension ref="B1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3">
+        <f>E4+E5+E8+E9</f>
+        <v>192</v>
+      </c>
+      <c r="P3">
+        <f>E3+F3+G3+H3</f>
+        <v>192</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>IF(P3&gt;160, "Error - out of scope", "Within Scope")</f>
+        <v>Error - out of scope</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5">
+        <f>E6+E7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003346250C7A7DC444B5B8BD6B4F11346C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7778cca334f7cd03e5491b75ee9e5f9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e86b558f-1821-4180-8c71-7e32b468d584" xmlns:ns4="bb0fba86-f7fb-46c6-8423-a0b803871f4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb87653dc2dcaf3360c4fa507c3fae27" ns3:_="" ns4:_="">
     <xsd:import namespace="e86b558f-1821-4180-8c71-7e32b468d584"/>
@@ -1005,6 +1191,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1012,14 +1207,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A0D4D9-C37D-4EC8-999A-605D60E3B106}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3817E717-5FBF-47BC-9D93-FE77C9207156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1034,6 +1221,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A0D4D9-C37D-4EC8-999A-605D60E3B106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
